--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="H2">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="I2">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="J2">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N2">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O2">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P2">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q2">
-        <v>15226.824133557</v>
+        <v>16707.55645616218</v>
       </c>
       <c r="R2">
-        <v>137041.417202013</v>
+        <v>150368.0081054596</v>
       </c>
       <c r="S2">
-        <v>0.7784921750093021</v>
+        <v>0.8105157794339162</v>
       </c>
       <c r="T2">
-        <v>0.7784921750093021</v>
+        <v>0.8105157794339164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="H3">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="I3">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="J3">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.240499</v>
       </c>
       <c r="O3">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P3">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q3">
-        <v>585.7450387262717</v>
+        <v>613.5647791552066</v>
       </c>
       <c r="R3">
-        <v>5271.705348536445</v>
+        <v>5522.08301239686</v>
       </c>
       <c r="S3">
-        <v>0.02994701489944912</v>
+        <v>0.02976521052106111</v>
       </c>
       <c r="T3">
-        <v>0.02994701489944913</v>
+        <v>0.02976521052106112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="H4">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="I4">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="J4">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N4">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O4">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P4">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q4">
-        <v>92.64076396948388</v>
+        <v>89.12879451091111</v>
       </c>
       <c r="R4">
-        <v>833.7668757253549</v>
+        <v>802.1591505982</v>
       </c>
       <c r="S4">
-        <v>0.004736385552532126</v>
+        <v>0.004323809681120208</v>
       </c>
       <c r="T4">
-        <v>0.004736385552532126</v>
+        <v>0.004323809681120209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="H5">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="I5">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="J5">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N5">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O5">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P5">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q5">
-        <v>1307.830743759273</v>
+        <v>1064.031830939178</v>
       </c>
       <c r="R5">
-        <v>11770.47669383345</v>
+        <v>9576.286478452599</v>
       </c>
       <c r="S5">
-        <v>0.06686463252763344</v>
+        <v>0.05161823580001035</v>
       </c>
       <c r="T5">
-        <v>0.06686463252763344</v>
+        <v>0.05161823580001036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="H6">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="I6">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="J6">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N6">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O6">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P6">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q6">
-        <v>44.63113850226777</v>
+        <v>83.76214351102443</v>
       </c>
       <c r="R6">
-        <v>401.68024652041</v>
+        <v>753.85929159922</v>
       </c>
       <c r="S6">
-        <v>0.002281827896678766</v>
+        <v>0.004063463093063722</v>
       </c>
       <c r="T6">
-        <v>0.002281827896678766</v>
+        <v>0.004063463093063723</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14.240499</v>
       </c>
       <c r="I7">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="J7">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N7">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O7">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P7">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q7">
-        <v>585.7450387262717</v>
+        <v>613.5647791552066</v>
       </c>
       <c r="R7">
-        <v>5271.705348536445</v>
+        <v>5522.08301239686</v>
       </c>
       <c r="S7">
-        <v>0.02994701489944912</v>
+        <v>0.02976521052106111</v>
       </c>
       <c r="T7">
-        <v>0.02994701489944913</v>
+        <v>0.02976521052106112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14.240499</v>
       </c>
       <c r="I8">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="J8">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,10 +933,10 @@
         <v>14.240499</v>
       </c>
       <c r="O8">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P8">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q8">
         <v>22.532423529889</v>
@@ -945,10 +945,10 @@
         <v>202.791811769001</v>
       </c>
       <c r="S8">
-        <v>0.001152000919440342</v>
+        <v>0.001093091312771071</v>
       </c>
       <c r="T8">
-        <v>0.001152000919440343</v>
+        <v>0.001093091312771071</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14.240499</v>
       </c>
       <c r="I9">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="J9">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N9">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O9">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P9">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q9">
-        <v>3.563702279804333</v>
+        <v>3.273147049596666</v>
       </c>
       <c r="R9">
-        <v>32.073320518239</v>
+        <v>29.45832344637</v>
       </c>
       <c r="S9">
-        <v>0.0001821991450453825</v>
+        <v>0.0001587866747041392</v>
       </c>
       <c r="T9">
-        <v>0.0001821991450453826</v>
+        <v>0.0001587866747041393</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>14.240499</v>
       </c>
       <c r="I10">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="J10">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N10">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O10">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P10">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q10">
-        <v>50.30959594275765</v>
+        <v>39.07528052215666</v>
       </c>
       <c r="R10">
-        <v>452.7863634848189</v>
+        <v>351.67752469941</v>
       </c>
       <c r="S10">
-        <v>0.002572146786866936</v>
+        <v>0.00189561720363564</v>
       </c>
       <c r="T10">
-        <v>0.002572146786866937</v>
+        <v>0.001895617203635641</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,40 +1101,40 @@
         <v>14.240499</v>
       </c>
       <c r="I11">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="J11">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N11">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O11">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P11">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q11">
-        <v>1.716869369548666</v>
+        <v>3.076063290269667</v>
       </c>
       <c r="R11">
-        <v>15.451824325938</v>
+        <v>27.684569612427</v>
       </c>
       <c r="S11">
-        <v>8.777729078522997E-05</v>
+        <v>0.0001492257615195081</v>
       </c>
       <c r="T11">
-        <v>8.777729078523E-05</v>
+        <v>0.0001492257615195082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="H12">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="I12">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="J12">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N12">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O12">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P12">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q12">
-        <v>92.64076396948388</v>
+        <v>89.12879451091111</v>
       </c>
       <c r="R12">
-        <v>833.7668757253549</v>
+        <v>802.1591505982</v>
       </c>
       <c r="S12">
-        <v>0.004736385552532126</v>
+        <v>0.004323809681120208</v>
       </c>
       <c r="T12">
-        <v>0.004736385552532126</v>
+        <v>0.004323809681120209</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="H13">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="I13">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="J13">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,22 +1243,22 @@
         <v>14.240499</v>
       </c>
       <c r="O13">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P13">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q13">
-        <v>3.563702279804333</v>
+        <v>3.273147049596666</v>
       </c>
       <c r="R13">
-        <v>32.073320518239</v>
+        <v>29.45832344637</v>
       </c>
       <c r="S13">
-        <v>0.0001821991450453825</v>
+        <v>0.0001587866747041392</v>
       </c>
       <c r="T13">
-        <v>0.0001821991450453826</v>
+        <v>0.0001587866747041393</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="H14">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="I14">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="J14">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N14">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O14">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P14">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q14">
-        <v>0.5636310680134444</v>
+        <v>0.4754700085444444</v>
       </c>
       <c r="R14">
-        <v>5.072679612120999</v>
+        <v>4.279230076899999</v>
       </c>
       <c r="S14">
-        <v>2.881640795164961E-05</v>
+        <v>2.306596692245289E-05</v>
       </c>
       <c r="T14">
-        <v>2.881640795164961E-05</v>
+        <v>2.30659669224529E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="H15">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="I15">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="J15">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N15">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O15">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P15">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q15">
-        <v>7.956908031637887</v>
+        <v>5.676226482411111</v>
       </c>
       <c r="R15">
-        <v>71.61217228474098</v>
+        <v>51.08603834169999</v>
       </c>
       <c r="S15">
-        <v>0.0004068077877282048</v>
+        <v>0.0002753646916415495</v>
       </c>
       <c r="T15">
-        <v>0.0004068077877282048</v>
+        <v>0.0002753646916415496</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="H16">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="I16">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="J16">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N16">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O16">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P16">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q16">
-        <v>0.2715380916868889</v>
+        <v>0.4468408588877777</v>
       </c>
       <c r="R16">
-        <v>2.443842825182</v>
+        <v>4.021567729989999</v>
       </c>
       <c r="S16">
-        <v>1.388275570408262E-05</v>
+        <v>2.167711166947872E-05</v>
       </c>
       <c r="T16">
-        <v>1.388275570408262E-05</v>
+        <v>2.167711166947873E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="H17">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="I17">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="J17">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N17">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O17">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P17">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q17">
-        <v>1307.830743759273</v>
+        <v>1064.031830939178</v>
       </c>
       <c r="R17">
-        <v>11770.47669383345</v>
+        <v>9576.286478452599</v>
       </c>
       <c r="S17">
-        <v>0.06686463252763344</v>
+        <v>0.05161823580001035</v>
       </c>
       <c r="T17">
-        <v>0.06686463252763344</v>
+        <v>0.05161823580001036</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="H18">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="I18">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="J18">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,22 +1553,22 @@
         <v>14.240499</v>
       </c>
       <c r="O18">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P18">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q18">
-        <v>50.30959594275765</v>
+        <v>39.07528052215666</v>
       </c>
       <c r="R18">
-        <v>452.7863634848189</v>
+        <v>351.67752469941</v>
       </c>
       <c r="S18">
-        <v>0.002572146786866936</v>
+        <v>0.00189561720363564</v>
       </c>
       <c r="T18">
-        <v>0.002572146786866937</v>
+        <v>0.001895617203635641</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="H19">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="I19">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="J19">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1609,28 +1609,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N19">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O19">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P19">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q19">
-        <v>7.956908031637887</v>
+        <v>5.676226482411111</v>
       </c>
       <c r="R19">
-        <v>71.61217228474098</v>
+        <v>51.08603834169999</v>
       </c>
       <c r="S19">
-        <v>0.0004068077877282048</v>
+        <v>0.0002753646916415495</v>
       </c>
       <c r="T19">
-        <v>0.0004068077877282048</v>
+        <v>0.0002753646916415496</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="H20">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="I20">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="J20">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1671,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N20">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O20">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P20">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q20">
-        <v>112.3294811393067</v>
+        <v>67.76357393867778</v>
       </c>
       <c r="R20">
-        <v>1010.965330253761</v>
+        <v>609.8721654481</v>
       </c>
       <c r="S20">
-        <v>0.005742998101428616</v>
+        <v>0.003287341634442183</v>
       </c>
       <c r="T20">
-        <v>0.005742998101428616</v>
+        <v>0.003287341634442184</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,46 +1715,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="H21">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="I21">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="J21">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N21">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O21">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P21">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q21">
-        <v>3.833365024135777</v>
+        <v>5.334447748674444</v>
       </c>
       <c r="R21">
-        <v>34.50028521722199</v>
+        <v>48.01002973807</v>
       </c>
       <c r="S21">
-        <v>0.0001959860210552602</v>
+        <v>0.0002587843462454195</v>
       </c>
       <c r="T21">
-        <v>0.0001959860210552602</v>
+        <v>0.0002587843462454196</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1771,22 +1771,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="H22">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="I22">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="J22">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1795,28 +1795,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.3970183333333</v>
+        <v>129.2577133333333</v>
       </c>
       <c r="N22">
-        <v>370.191055</v>
+        <v>387.77314</v>
       </c>
       <c r="O22">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291716</v>
       </c>
       <c r="P22">
-        <v>0.8823220358855955</v>
+        <v>0.9002864985291718</v>
       </c>
       <c r="Q22">
-        <v>44.63113850226777</v>
+        <v>83.76214351102443</v>
       </c>
       <c r="R22">
-        <v>401.68024652041</v>
+        <v>753.85929159922</v>
       </c>
       <c r="S22">
-        <v>0.002281827896678766</v>
+        <v>0.004063463093063722</v>
       </c>
       <c r="T22">
-        <v>0.002281827896678766</v>
+        <v>0.004063463093063723</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1833,22 +1833,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="H23">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="I23">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="J23">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,22 +1863,22 @@
         <v>14.240499</v>
       </c>
       <c r="O23">
-        <v>0.03394113904158701</v>
+        <v>0.03306193147369147</v>
       </c>
       <c r="P23">
-        <v>0.03394113904158702</v>
+        <v>0.03306193147369148</v>
       </c>
       <c r="Q23">
-        <v>1.716869369548666</v>
+        <v>3.076063290269667</v>
       </c>
       <c r="R23">
-        <v>15.451824325938</v>
+        <v>27.684569612427</v>
       </c>
       <c r="S23">
-        <v>8.777729078522997E-05</v>
+        <v>0.0001492257615195081</v>
       </c>
       <c r="T23">
-        <v>8.777729078523E-05</v>
+        <v>0.0001492257615195082</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1895,22 +1895,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="H24">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="I24">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="J24">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1919,28 +1919,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7507536666666667</v>
+        <v>0.6895433333333333</v>
       </c>
       <c r="N24">
-        <v>2.252261</v>
+        <v>2.06863</v>
       </c>
       <c r="O24">
-        <v>0.005368091648961446</v>
+        <v>0.004802704126057829</v>
       </c>
       <c r="P24">
-        <v>0.005368091648961446</v>
+        <v>0.00480270412605783</v>
       </c>
       <c r="Q24">
-        <v>0.2715380916868889</v>
+        <v>0.4468408588877777</v>
       </c>
       <c r="R24">
-        <v>2.443842825182</v>
+        <v>4.021567729989999</v>
       </c>
       <c r="S24">
-        <v>1.388275570408262E-05</v>
+        <v>2.167711166947872E-05</v>
       </c>
       <c r="T24">
-        <v>1.388275570408262E-05</v>
+        <v>2.167711166947873E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1957,22 +1957,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="H25">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="I25">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="J25">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1981,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.59856033333333</v>
+        <v>8.231863333333333</v>
       </c>
       <c r="N25">
-        <v>31.79568099999999</v>
+        <v>24.69559</v>
       </c>
       <c r="O25">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="P25">
-        <v>0.07578257122471245</v>
+        <v>0.05733534367597515</v>
       </c>
       <c r="Q25">
-        <v>3.833365024135777</v>
+        <v>5.334447748674444</v>
       </c>
       <c r="R25">
-        <v>34.50028521722199</v>
+        <v>48.01002973807</v>
       </c>
       <c r="S25">
-        <v>0.0001959860210552602</v>
+        <v>0.0002587843462454195</v>
       </c>
       <c r="T25">
-        <v>0.0001959860210552602</v>
+        <v>0.0002587843462454196</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2019,52 +2019,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="H26">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="I26">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="J26">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3616873333333333</v>
+        <v>0.6480243333333333</v>
       </c>
       <c r="N26">
-        <v>1.085062</v>
+        <v>1.944073</v>
       </c>
       <c r="O26">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="P26">
-        <v>0.002586162199143618</v>
+        <v>0.004513522195103824</v>
       </c>
       <c r="Q26">
-        <v>0.1308177270937778</v>
+        <v>0.4199355365921111</v>
       </c>
       <c r="R26">
-        <v>1.177359543844</v>
+        <v>3.779419829329</v>
       </c>
       <c r="S26">
-        <v>6.688234920279353E-06</v>
+        <v>2.037188260569484E-05</v>
       </c>
       <c r="T26">
-        <v>6.688234920279353E-06</v>
+        <v>2.037188260569485E-05</v>
       </c>
     </row>
   </sheetData>
